--- a/worddata/wordle_wo_letterfreq.xlsx
+++ b/worddata/wordle_wo_letterfreq.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretbahe/Development/wordle/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretbahe/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44070B54-E794-564D-B14D-69AD3AFADFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98DB70F-AC55-B84E-A12A-88C9B32FCCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="2600" windowWidth="30500" windowHeight="18820" xr2:uid="{B464FD66-F95B-1940-8FC8-8B65EABFB7FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{B464FD66-F95B-1940-8FC8-8B65EABFB7FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Letter</t>
   </si>
@@ -123,14 +125,57 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Letter Ranking Data</t>
+  </si>
+  <si>
+    <t>By Letter Ocurrence</t>
+  </si>
+  <si>
+    <t>By Letter Position - Raw</t>
+  </si>
+  <si>
+    <t>By Letter Position - Fraction</t>
+  </si>
+  <si>
+    <t>By Letter Position - Weighted</t>
+  </si>
+  <si>
+    <t>letter_ranks.txt</t>
+  </si>
+  <si>
+    <t>hard coded in helpers.py</t>
+  </si>
+  <si>
+    <t>ltr_rank_dict = {</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>MEAN</t>
+  </si>
+  <si>
+    <t>VAR.P</t>
+  </si>
+  <si>
+    <t>STDEV.P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -141,12 +186,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -176,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,8 +241,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -501,11 +612,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B14105-F6F9-A64C-8035-79998B886E99}">
-  <dimension ref="A2:D29"/>
+  <dimension ref="A1:AJ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="153" zoomScaleNormal="153" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="152" zoomScaleNormal="152" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -513,15 +622,100 @@
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.33203125" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="27" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.33203125" customWidth="1"/>
+    <col min="30" max="30" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.33203125" customWidth="1"/>
+    <col min="34" max="34" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="3.6640625" customWidth="1"/>
+    <col min="36" max="36" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C2" s="1">
         <f>MIN(C4:C29)</f>
         <v>27</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -534,8 +728,90 @@
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>5</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>4</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -545,12 +821,115 @@
       <c r="C4" s="2">
         <v>1053</v>
       </c>
-      <c r="D4" s="3">
-        <f>C4/$C$2</f>
+      <c r="D4" s="12">
+        <f t="shared" ref="D4:D29" si="0">C4/$C$2</f>
         <v>39</v>
       </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="15" t="str">
+        <f>B4</f>
+        <v>E</v>
+      </c>
+      <c r="G4" s="5">
+        <v>72</v>
+      </c>
+      <c r="H4" s="5">
+        <v>241</v>
+      </c>
+      <c r="I4" s="5">
+        <v>177</v>
+      </c>
+      <c r="J4" s="5">
+        <v>318</v>
+      </c>
+      <c r="K4" s="5">
+        <v>422</v>
+      </c>
+      <c r="L4" s="21">
+        <f>SUM(G4:K4)</f>
+        <v>1230</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="15" t="str">
+        <f>B4</f>
+        <v>E</v>
+      </c>
+      <c r="O4" s="20">
+        <f>G4/$L4</f>
+        <v>5.8536585365853662E-2</v>
+      </c>
+      <c r="P4" s="20">
+        <f t="shared" ref="P4:S4" si="1">H4/$L4</f>
+        <v>0.19593495934959348</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="1"/>
+        <v>0.14390243902439023</v>
+      </c>
+      <c r="R4" s="20">
+        <f t="shared" si="1"/>
+        <v>0.25853658536585367</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="1"/>
+        <v>0.34308943089430893</v>
+      </c>
+      <c r="T4" s="21">
+        <f>SUM(O4:S4)</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="15" t="str">
+        <f>B4</f>
+        <v>E</v>
+      </c>
+      <c r="W4" s="16">
+        <f>$D4*O4</f>
+        <v>2.2829268292682929</v>
+      </c>
+      <c r="X4" s="16">
+        <f t="shared" ref="X4:AA4" si="2">$D4*P4</f>
+        <v>7.6414634146341456</v>
+      </c>
+      <c r="Y4" s="16">
+        <f t="shared" si="2"/>
+        <v>5.6121951219512187</v>
+      </c>
+      <c r="Z4" s="16">
+        <f t="shared" si="2"/>
+        <v>10.082926829268294</v>
+      </c>
+      <c r="AA4" s="16">
+        <f t="shared" si="2"/>
+        <v>13.380487804878049</v>
+      </c>
+      <c r="AB4" s="17">
+        <f>SUM(W4:AA4)</f>
+        <v>39</v>
+      </c>
+      <c r="AC4" s="13"/>
+      <c r="AD4" s="16">
+        <f t="shared" ref="AD4:AD29" si="3">_xlfn.VAR.P(W4:AA4)</f>
+        <v>14.320663890541345</v>
+      </c>
+      <c r="AE4" s="16">
+        <f>_xlfn.STDEV.P(W4:AA4)</f>
+        <v>3.7842653039317082</v>
+      </c>
+      <c r="AF4" s="16">
+        <f t="shared" ref="AF4:AF29" si="4">AVERAGE(W4:AA4)</f>
+        <v>7.8</v>
+      </c>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="18" t="str">
+        <f>LOWER(V4)&amp;":"&amp;TEXT($AB4, "0.0")&amp;":"&amp;TEXT($W4, "0.00")&amp;":"&amp;TEXT($X4, "0.00")&amp;":"&amp;TEXT($Y4, "0.00")&amp;":"&amp;TEXT($Z4, "0.00")&amp;":"&amp;TEXT($AA4, "0.00")</f>
+        <v>e:39.0:2.28:7.64:5.61:10.08:13.38</v>
+      </c>
+      <c r="AJ4" s="18" t="str">
+        <f>"'"&amp;LOWER(V4)&amp;"'"&amp;": ["&amp;TEXT($AB4, "0.0")&amp;" , "&amp;TEXT($W4, "0.00")&amp;" , "&amp;TEXT($X4, "0.00")&amp;" , "&amp;TEXT($Y4, "0.00")&amp;" , "&amp;TEXT($Z4, "0.00")&amp;" , "&amp;TEXT($AA4, "0.00")&amp;"],"</f>
+        <v>'e': [39.0 , 2.28 , 7.64 , 5.61 , 10.08 , 13.38],</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -560,12 +939,115 @@
       <c r="C5" s="2">
         <v>906</v>
       </c>
-      <c r="D5" s="3">
-        <f>C5/$C$2</f>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
         <v>33.555555555555557</v>
       </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="15" t="str">
+        <f t="shared" ref="F5:F29" si="5">B5</f>
+        <v>A</v>
+      </c>
+      <c r="G5" s="5">
+        <v>140</v>
+      </c>
+      <c r="H5" s="5">
+        <v>304</v>
+      </c>
+      <c r="I5" s="5">
+        <v>306</v>
+      </c>
+      <c r="J5" s="5">
+        <v>162</v>
+      </c>
+      <c r="K5" s="5">
+        <v>63</v>
+      </c>
+      <c r="L5" s="21">
+        <f>SUM(G5:K5)</f>
+        <v>975</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="15" t="str">
+        <f t="shared" ref="N5:N29" si="6">B5</f>
+        <v>A</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" ref="O5:O29" si="7">G5/$L5</f>
+        <v>0.14358974358974358</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" ref="P5:P29" si="8">H5/$L5</f>
+        <v>0.31179487179487181</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" ref="Q5:Q29" si="9">I5/$L5</f>
+        <v>0.31384615384615383</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" ref="R5:R29" si="10">J5/$L5</f>
+        <v>0.16615384615384615</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" ref="S5:S29" si="11">K5/$L5</f>
+        <v>6.4615384615384616E-2</v>
+      </c>
+      <c r="T5" s="21">
+        <f>SUM(O5:S5)</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="V5" s="15" t="str">
+        <f t="shared" ref="V5:V29" si="12">B5</f>
+        <v>A</v>
+      </c>
+      <c r="W5" s="16">
+        <f t="shared" ref="W5:W29" si="13">$D5*O5</f>
+        <v>4.8182336182336183</v>
+      </c>
+      <c r="X5" s="16">
+        <f t="shared" ref="X5:X29" si="14">$D5*P5</f>
+        <v>10.462450142450143</v>
+      </c>
+      <c r="Y5" s="16">
+        <f t="shared" ref="Y5:Y29" si="15">$D5*Q5</f>
+        <v>10.531282051282052</v>
+      </c>
+      <c r="Z5" s="16">
+        <f t="shared" ref="Z5:Z29" si="16">$D5*R5</f>
+        <v>5.5753846153846158</v>
+      </c>
+      <c r="AA5" s="16">
+        <f t="shared" ref="AA5:AA29" si="17">$D5*S5</f>
+        <v>2.1682051282051282</v>
+      </c>
+      <c r="AB5" s="17">
+        <f>SUM(W5:AA5)</f>
+        <v>33.555555555555557</v>
+      </c>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="16">
+        <f t="shared" si="3"/>
+        <v>10.835421037166897</v>
+      </c>
+      <c r="AE5" s="16">
+        <f t="shared" ref="AE5:AE29" si="18">_xlfn.STDEV.P(W5:AA5)</f>
+        <v>3.2917200727229066</v>
+      </c>
+      <c r="AF5" s="16">
+        <f t="shared" si="4"/>
+        <v>6.7111111111111112</v>
+      </c>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="18" t="str">
+        <f t="shared" ref="AH5:AH29" si="19">LOWER(V5)&amp;":"&amp;TEXT($AB5, "0.0")&amp;":"&amp;TEXT($W5, "0.00")&amp;":"&amp;TEXT($X5, "0.00")&amp;":"&amp;TEXT($Y5, "0.00")&amp;":"&amp;TEXT($Z5, "0.00")&amp;":"&amp;TEXT($AA5, "0.00")</f>
+        <v>a:33.6:4.82:10.46:10.53:5.58:2.17</v>
+      </c>
+      <c r="AJ5" s="18" t="str">
+        <f t="shared" ref="AJ5:AJ29" si="20">"'"&amp;LOWER(V5)&amp;"'"&amp;": ["&amp;TEXT($AB5, "0.0")&amp;" , "&amp;TEXT($W5, "0.00")&amp;" , "&amp;TEXT($X5, "0.00")&amp;" , "&amp;TEXT($Y5, "0.00")&amp;" , "&amp;TEXT($Z5, "0.00")&amp;" , "&amp;TEXT($AA5, "0.00")&amp;"],"</f>
+        <v>'a': [33.6 , 4.82 , 10.46 , 10.53 , 5.58 , 2.17],</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -575,12 +1057,115 @@
       <c r="C6" s="2">
         <v>835</v>
       </c>
-      <c r="D6" s="3">
-        <f>C6/$C$2</f>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
         <v>30.925925925925927</v>
       </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>R</v>
+      </c>
+      <c r="G6" s="5">
+        <v>105</v>
+      </c>
+      <c r="H6" s="5">
+        <v>267</v>
+      </c>
+      <c r="I6" s="5">
+        <v>163</v>
+      </c>
+      <c r="J6" s="5">
+        <v>150</v>
+      </c>
+      <c r="K6" s="5">
+        <v>212</v>
+      </c>
+      <c r="L6" s="21">
+        <f t="shared" ref="L6:L29" si="21">SUM(G6:K6)</f>
+        <v>897</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>R</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="7"/>
+        <v>0.11705685618729098</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="8"/>
+        <v>0.2976588628762542</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="9"/>
+        <v>0.18171683389074694</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="10"/>
+        <v>0.16722408026755853</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="11"/>
+        <v>0.23634336677814938</v>
+      </c>
+      <c r="T6" s="21">
+        <f t="shared" ref="T6:T29" si="22">SUM(O6:S6)</f>
+        <v>1</v>
+      </c>
+      <c r="V6" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>R</v>
+      </c>
+      <c r="W6" s="16">
+        <f t="shared" si="13"/>
+        <v>3.6200916635699247</v>
+      </c>
+      <c r="X6" s="16">
+        <f t="shared" si="14"/>
+        <v>9.2053759445063807</v>
+      </c>
+      <c r="Y6" s="16">
+        <f t="shared" si="15"/>
+        <v>5.6197613443990262</v>
+      </c>
+      <c r="Z6" s="16">
+        <f t="shared" si="16"/>
+        <v>5.1715595193856068</v>
+      </c>
+      <c r="AA6" s="16">
+        <f t="shared" si="17"/>
+        <v>7.3091374540649907</v>
+      </c>
+      <c r="AB6" s="17">
+        <f t="shared" ref="AB6:AB29" si="23">SUM(W6:AA6)</f>
+        <v>30.925925925925931</v>
+      </c>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="16">
+        <f t="shared" si="3"/>
+        <v>3.6623333620277574</v>
+      </c>
+      <c r="AE6" s="16">
+        <f t="shared" si="18"/>
+        <v>1.9137223837400652</v>
+      </c>
+      <c r="AF6" s="16">
+        <f t="shared" si="4"/>
+        <v>6.185185185185186</v>
+      </c>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>r:30.9:3.62:9.21:5.62:5.17:7.31</v>
+      </c>
+      <c r="AJ6" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'r': [30.9 , 3.62 , 9.21 , 5.62 , 5.17 , 7.31],</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -590,12 +1175,115 @@
       <c r="C7" s="2">
         <v>672</v>
       </c>
-      <c r="D7" s="3">
-        <f>C7/$C$2</f>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
         <v>24.888888888888889</v>
       </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>O</v>
+      </c>
+      <c r="G7" s="5">
+        <v>41</v>
+      </c>
+      <c r="H7" s="5">
+        <v>279</v>
+      </c>
+      <c r="I7" s="5">
+        <v>243</v>
+      </c>
+      <c r="J7" s="5">
+        <v>132</v>
+      </c>
+      <c r="K7" s="5">
+        <v>58</v>
+      </c>
+      <c r="L7" s="21">
+        <f t="shared" si="21"/>
+        <v>753</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>O</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="7"/>
+        <v>5.4448871181938911E-2</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="8"/>
+        <v>0.37051792828685259</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="9"/>
+        <v>0.32270916334661354</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="10"/>
+        <v>0.1752988047808765</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="11"/>
+        <v>7.702523240371846E-2</v>
+      </c>
+      <c r="T7" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>O</v>
+      </c>
+      <c r="W7" s="16">
+        <f t="shared" si="13"/>
+        <v>1.3551719049727018</v>
+      </c>
+      <c r="X7" s="16">
+        <f t="shared" si="14"/>
+        <v>9.2217795484727763</v>
+      </c>
+      <c r="Y7" s="16">
+        <f t="shared" si="15"/>
+        <v>8.0318725099601593</v>
+      </c>
+      <c r="Z7" s="16">
+        <f t="shared" si="16"/>
+        <v>4.3629924745462594</v>
+      </c>
+      <c r="AA7" s="16">
+        <f t="shared" si="17"/>
+        <v>1.9170724509369927</v>
+      </c>
+      <c r="AB7" s="17">
+        <f t="shared" si="23"/>
+        <v>24.888888888888889</v>
+      </c>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="16">
+        <f t="shared" si="3"/>
+        <v>10.041639407861862</v>
+      </c>
+      <c r="AE7" s="16">
+        <f t="shared" si="18"/>
+        <v>3.1688545892580589</v>
+      </c>
+      <c r="AF7" s="16">
+        <f t="shared" si="4"/>
+        <v>4.9777777777777779</v>
+      </c>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>o:24.9:1.36:9.22:8.03:4.36:1.92</v>
+      </c>
+      <c r="AJ7" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'o': [24.9 , 1.36 , 9.22 , 8.03 , 4.36 , 1.92],</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -605,12 +1293,115 @@
       <c r="C8" s="2">
         <v>667</v>
       </c>
-      <c r="D8" s="3">
-        <f>C8/$C$2</f>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
         <v>24.703703703703702</v>
       </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>T</v>
+      </c>
+      <c r="G8" s="5">
+        <v>149</v>
+      </c>
+      <c r="H8" s="5">
+        <v>77</v>
+      </c>
+      <c r="I8" s="5">
+        <v>111</v>
+      </c>
+      <c r="J8" s="5">
+        <v>139</v>
+      </c>
+      <c r="K8" s="5">
+        <v>253</v>
+      </c>
+      <c r="L8" s="21">
+        <f t="shared" si="21"/>
+        <v>729</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>T</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="7"/>
+        <v>0.20438957475994513</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="8"/>
+        <v>0.1056241426611797</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="9"/>
+        <v>0.15226337448559671</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="10"/>
+        <v>0.19067215363511661</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="11"/>
+        <v>0.34705075445816186</v>
+      </c>
+      <c r="T8" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>T</v>
+      </c>
+      <c r="W8" s="16">
+        <f t="shared" si="13"/>
+        <v>5.0491794949956814</v>
+      </c>
+      <c r="X8" s="16">
+        <f t="shared" si="14"/>
+        <v>2.609307524259513</v>
+      </c>
+      <c r="Y8" s="16">
+        <f t="shared" si="15"/>
+        <v>3.7614692882182594</v>
+      </c>
+      <c r="Z8" s="16">
+        <f t="shared" si="16"/>
+        <v>4.7103083879489915</v>
+      </c>
+      <c r="AA8" s="16">
+        <f t="shared" si="17"/>
+        <v>8.573439008281257</v>
+      </c>
+      <c r="AB8" s="17">
+        <f t="shared" si="23"/>
+        <v>24.703703703703702</v>
+      </c>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="16">
+        <f t="shared" si="3"/>
+        <v>4.017523347455171</v>
+      </c>
+      <c r="AE8" s="16">
+        <f t="shared" si="18"/>
+        <v>2.0043760494116794</v>
+      </c>
+      <c r="AF8" s="16">
+        <f t="shared" si="4"/>
+        <v>4.9407407407407407</v>
+      </c>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>t:24.7:5.05:2.61:3.76:4.71:8.57</v>
+      </c>
+      <c r="AJ8" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'t': [24.7 , 5.05 , 2.61 , 3.76 , 4.71 , 8.57],</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>4</v>
       </c>
@@ -620,12 +1411,115 @@
       <c r="C9" s="2">
         <v>646</v>
       </c>
-      <c r="D9" s="3">
-        <f>C9/$C$2</f>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
         <v>23.925925925925927</v>
       </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>I</v>
+      </c>
+      <c r="G9" s="5">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5">
+        <v>201</v>
+      </c>
+      <c r="I9" s="5">
+        <v>266</v>
+      </c>
+      <c r="J9" s="5">
+        <v>158</v>
+      </c>
+      <c r="K9" s="5">
+        <v>11</v>
+      </c>
+      <c r="L9" s="21">
+        <f t="shared" si="21"/>
+        <v>670</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>I</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="7"/>
+        <v>5.0746268656716415E-2</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="9"/>
+        <v>0.39701492537313432</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="10"/>
+        <v>0.23582089552238805</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="11"/>
+        <v>1.6417910447761194E-2</v>
+      </c>
+      <c r="T9" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>I</v>
+      </c>
+      <c r="W9" s="16">
+        <f t="shared" si="13"/>
+        <v>1.2141514648977336</v>
+      </c>
+      <c r="X9" s="16">
+        <f t="shared" si="14"/>
+        <v>7.177777777777778</v>
+      </c>
+      <c r="Y9" s="16">
+        <f t="shared" si="15"/>
+        <v>9.4989496959646225</v>
+      </c>
+      <c r="Z9" s="16">
+        <f t="shared" si="16"/>
+        <v>5.6422332780541735</v>
+      </c>
+      <c r="AA9" s="16">
+        <f t="shared" si="17"/>
+        <v>0.39281370923161968</v>
+      </c>
+      <c r="AB9" s="17">
+        <f t="shared" si="23"/>
+        <v>23.925925925925931</v>
+      </c>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="16">
+        <f t="shared" si="3"/>
+        <v>12.144763124980704</v>
+      </c>
+      <c r="AE9" s="16">
+        <f t="shared" si="18"/>
+        <v>3.4849337332266024</v>
+      </c>
+      <c r="AF9" s="16">
+        <f t="shared" si="4"/>
+        <v>4.7851851851851865</v>
+      </c>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>i:23.9:1.21:7.18:9.50:5.64:0.39</v>
+      </c>
+      <c r="AJ9" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'i': [23.9 , 1.21 , 7.18 , 9.50 , 5.64 , 0.39],</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -635,12 +1529,115 @@
       <c r="C10" s="2">
         <v>645</v>
       </c>
-      <c r="D10" s="3">
-        <f>C10/$C$2</f>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
         <v>23.888888888888889</v>
       </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>L</v>
+      </c>
+      <c r="G10" s="5">
+        <v>87</v>
+      </c>
+      <c r="H10" s="5">
+        <v>200</v>
+      </c>
+      <c r="I10" s="5">
+        <v>112</v>
+      </c>
+      <c r="J10" s="5">
+        <v>162</v>
+      </c>
+      <c r="K10" s="5">
+        <v>155</v>
+      </c>
+      <c r="L10" s="21">
+        <f t="shared" si="21"/>
+        <v>716</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>L</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="7"/>
+        <v>0.12150837988826815</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="8"/>
+        <v>0.27932960893854747</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="9"/>
+        <v>0.15642458100558659</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="10"/>
+        <v>0.22625698324022347</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="11"/>
+        <v>0.21648044692737431</v>
+      </c>
+      <c r="T10" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>L</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="13"/>
+        <v>2.9027001862197395</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="14"/>
+        <v>6.6728739913097455</v>
+      </c>
+      <c r="Y10" s="16">
+        <f t="shared" si="15"/>
+        <v>3.7368094351334578</v>
+      </c>
+      <c r="Z10" s="16">
+        <f t="shared" si="16"/>
+        <v>5.4050279329608939</v>
+      </c>
+      <c r="AA10" s="16">
+        <f t="shared" si="17"/>
+        <v>5.1714773432650532</v>
+      </c>
+      <c r="AB10" s="17">
+        <f t="shared" si="23"/>
+        <v>23.888888888888889</v>
+      </c>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="16">
+        <f t="shared" si="3"/>
+        <v>1.7478725656672167</v>
+      </c>
+      <c r="AE10" s="16">
+        <f t="shared" si="18"/>
+        <v>1.322071316407408</v>
+      </c>
+      <c r="AF10" s="16">
+        <f t="shared" si="4"/>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>l:23.9:2.90:6.67:3.74:5.41:5.17</v>
+      </c>
+      <c r="AJ10" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'l': [23.9 , 2.90 , 6.67 , 3.74 , 5.41 , 5.17],</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -650,12 +1647,115 @@
       <c r="C11" s="2">
         <v>617</v>
       </c>
-      <c r="D11" s="3">
-        <f>C11/$C$2</f>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
         <v>22.851851851851851</v>
       </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>S</v>
+      </c>
+      <c r="G11" s="5">
+        <v>365</v>
+      </c>
+      <c r="H11" s="5">
+        <v>16</v>
+      </c>
+      <c r="I11" s="5">
+        <v>80</v>
+      </c>
+      <c r="J11" s="5">
+        <v>171</v>
+      </c>
+      <c r="K11" s="5">
+        <v>36</v>
+      </c>
+      <c r="L11" s="21">
+        <f t="shared" si="21"/>
+        <v>668</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>S</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="7"/>
+        <v>0.54640718562874246</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" si="8"/>
+        <v>2.3952095808383235E-2</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="9"/>
+        <v>0.11976047904191617</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" si="10"/>
+        <v>0.2559880239520958</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="11"/>
+        <v>5.3892215568862277E-2</v>
+      </c>
+      <c r="T11" s="21">
+        <f t="shared" si="22"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="V11" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>S</v>
+      </c>
+      <c r="W11" s="16">
+        <f t="shared" si="13"/>
+        <v>12.486416056775337</v>
+      </c>
+      <c r="X11" s="16">
+        <f t="shared" si="14"/>
+        <v>0.54734974495453537</v>
+      </c>
+      <c r="Y11" s="16">
+        <f t="shared" si="15"/>
+        <v>2.7367487247726769</v>
+      </c>
+      <c r="Z11" s="16">
+        <f t="shared" si="16"/>
+        <v>5.8498003992015963</v>
+      </c>
+      <c r="AA11" s="16">
+        <f t="shared" si="17"/>
+        <v>1.2315369261477045</v>
+      </c>
+      <c r="AB11" s="17">
+        <f t="shared" si="23"/>
+        <v>22.851851851851848</v>
+      </c>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="16">
+        <f t="shared" si="3"/>
+        <v>18.99907851358223</v>
+      </c>
+      <c r="AE11" s="16">
+        <f t="shared" si="18"/>
+        <v>4.3587932405176355</v>
+      </c>
+      <c r="AF11" s="16">
+        <f t="shared" si="4"/>
+        <v>4.5703703703703695</v>
+      </c>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>s:22.9:12.49:0.55:2.74:5.85:1.23</v>
+      </c>
+      <c r="AJ11" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'s': [22.9 , 12.49 , 0.55 , 2.74 , 5.85 , 1.23],</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>7</v>
       </c>
@@ -665,12 +1765,115 @@
       <c r="C12" s="2">
         <v>548</v>
       </c>
-      <c r="D12" s="3">
-        <f>C12/$C$2</f>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
         <v>20.296296296296298</v>
       </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>N</v>
+      </c>
+      <c r="G12" s="5">
+        <v>37</v>
+      </c>
+      <c r="H12" s="5">
+        <v>87</v>
+      </c>
+      <c r="I12" s="5">
+        <v>137</v>
+      </c>
+      <c r="J12" s="5">
+        <v>182</v>
+      </c>
+      <c r="K12" s="5">
+        <v>130</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" si="21"/>
+        <v>573</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>N</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="7"/>
+        <v>6.4572425828970326E-2</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="8"/>
+        <v>0.15183246073298429</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="9"/>
+        <v>0.23909249563699825</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="10"/>
+        <v>0.31762652705061084</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="11"/>
+        <v>0.2268760907504363</v>
+      </c>
+      <c r="T12" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V12" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>N</v>
+      </c>
+      <c r="W12" s="16">
+        <f t="shared" si="13"/>
+        <v>1.3105810871953978</v>
+      </c>
+      <c r="X12" s="16">
+        <f t="shared" si="14"/>
+        <v>3.081636610432422</v>
+      </c>
+      <c r="Y12" s="16">
+        <f t="shared" si="15"/>
+        <v>4.8526921336694464</v>
+      </c>
+      <c r="Z12" s="16">
+        <f t="shared" si="16"/>
+        <v>6.4466421045827689</v>
+      </c>
+      <c r="AA12" s="16">
+        <f t="shared" si="17"/>
+        <v>4.6047443604162632</v>
+      </c>
+      <c r="AB12" s="17">
+        <f t="shared" si="23"/>
+        <v>20.296296296296298</v>
+      </c>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="16">
+        <f t="shared" si="3"/>
+        <v>3.0275328618007187</v>
+      </c>
+      <c r="AE12" s="16">
+        <f t="shared" si="18"/>
+        <v>1.7399807073070432</v>
+      </c>
+      <c r="AF12" s="16">
+        <f t="shared" si="4"/>
+        <v>4.0592592592592593</v>
+      </c>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>n:20.3:1.31:3.08:4.85:6.45:4.60</v>
+      </c>
+      <c r="AJ12" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'n': [20.3 , 1.31 , 3.08 , 4.85 , 6.45 , 4.60],</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -680,12 +1883,115 @@
       <c r="C13" s="2">
         <v>456</v>
       </c>
-      <c r="D13" s="3">
-        <f>C13/$C$2</f>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
         <v>16.888888888888889</v>
       </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>U</v>
+      </c>
+      <c r="G13" s="5">
+        <v>33</v>
+      </c>
+      <c r="H13" s="5">
+        <v>185</v>
+      </c>
+      <c r="I13" s="5">
+        <v>165</v>
+      </c>
+      <c r="J13" s="5">
+        <v>82</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <f t="shared" si="21"/>
+        <v>466</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>U</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="7"/>
+        <v>7.0815450643776826E-2</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="8"/>
+        <v>0.39699570815450641</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="9"/>
+        <v>0.35407725321888411</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="10"/>
+        <v>0.17596566523605151</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="11"/>
+        <v>2.1459227467811159E-3</v>
+      </c>
+      <c r="T13" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V13" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>U</v>
+      </c>
+      <c r="W13" s="16">
+        <f t="shared" si="13"/>
+        <v>1.195994277539342</v>
+      </c>
+      <c r="X13" s="16">
+        <f t="shared" si="14"/>
+        <v>6.7048164043872198</v>
+      </c>
+      <c r="Y13" s="16">
+        <f t="shared" si="15"/>
+        <v>5.9799713876967093</v>
+      </c>
+      <c r="Z13" s="16">
+        <f t="shared" si="16"/>
+        <v>2.971864568431092</v>
+      </c>
+      <c r="AA13" s="16">
+        <f t="shared" si="17"/>
+        <v>3.6242250834525515E-2</v>
+      </c>
+      <c r="AB13" s="17">
+        <f t="shared" si="23"/>
+        <v>16.888888888888889</v>
+      </c>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="16">
+        <f t="shared" si="3"/>
+        <v>6.7862804119425775</v>
+      </c>
+      <c r="AE13" s="16">
+        <f t="shared" si="18"/>
+        <v>2.6050490229442089</v>
+      </c>
+      <c r="AF13" s="16">
+        <f t="shared" si="4"/>
+        <v>3.3777777777777778</v>
+      </c>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>u:16.9:1.20:6.70:5.98:2.97:0.04</v>
+      </c>
+      <c r="AJ13" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'u': [16.9 , 1.20 , 6.70 , 5.98 , 2.97 , 0.04],</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -695,12 +2001,115 @@
       <c r="C14" s="2">
         <v>446</v>
       </c>
-      <c r="D14" s="3">
-        <f>C14/$C$2</f>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
         <v>16.518518518518519</v>
       </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>C</v>
+      </c>
+      <c r="G14" s="5">
+        <v>198</v>
+      </c>
+      <c r="H14" s="5">
+        <v>40</v>
+      </c>
+      <c r="I14" s="5">
+        <v>56</v>
+      </c>
+      <c r="J14" s="5">
+        <v>150</v>
+      </c>
+      <c r="K14" s="5">
+        <v>31</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" si="21"/>
+        <v>475</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>C</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="7"/>
+        <v>0.4168421052631579</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="8"/>
+        <v>8.4210526315789472E-2</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="9"/>
+        <v>0.11789473684210526</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" si="10"/>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="11"/>
+        <v>6.5263157894736842E-2</v>
+      </c>
+      <c r="T14" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>C</v>
+      </c>
+      <c r="W14" s="16">
+        <f t="shared" si="13"/>
+        <v>6.8856140350877197</v>
+      </c>
+      <c r="X14" s="16">
+        <f t="shared" si="14"/>
+        <v>1.3910331384015595</v>
+      </c>
+      <c r="Y14" s="16">
+        <f t="shared" si="15"/>
+        <v>1.9474463937621833</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" si="16"/>
+        <v>5.2163742690058479</v>
+      </c>
+      <c r="AA14" s="16">
+        <f t="shared" si="17"/>
+        <v>1.0780506822612086</v>
+      </c>
+      <c r="AB14" s="17">
+        <f t="shared" si="23"/>
+        <v>16.518518518518519</v>
+      </c>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="16">
+        <f t="shared" si="3"/>
+        <v>5.3879328534895805</v>
+      </c>
+      <c r="AE14" s="16">
+        <f t="shared" si="18"/>
+        <v>2.3211921190391762</v>
+      </c>
+      <c r="AF14" s="16">
+        <f t="shared" si="4"/>
+        <v>3.3037037037037038</v>
+      </c>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>c:16.5:6.89:1.39:1.95:5.22:1.08</v>
+      </c>
+      <c r="AJ14" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'c': [16.5 , 6.89 , 1.39 , 1.95 , 5.22 , 1.08],</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>19</v>
       </c>
@@ -710,12 +2119,115 @@
       <c r="C15" s="2">
         <v>416</v>
       </c>
-      <c r="D15" s="3">
-        <f>C15/$C$2</f>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
         <v>15.407407407407407</v>
       </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>Y</v>
+      </c>
+      <c r="G15" s="5">
+        <v>6</v>
+      </c>
+      <c r="H15" s="5">
+        <v>22</v>
+      </c>
+      <c r="I15" s="5">
+        <v>29</v>
+      </c>
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
+      <c r="K15" s="5">
+        <v>364</v>
+      </c>
+      <c r="L15" s="21">
+        <f t="shared" si="21"/>
+        <v>424</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>Y</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="7"/>
+        <v>1.4150943396226415E-2</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" si="8"/>
+        <v>5.1886792452830191E-2</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="9"/>
+        <v>6.8396226415094338E-2</v>
+      </c>
+      <c r="R15" s="20">
+        <f t="shared" si="10"/>
+        <v>7.0754716981132077E-3</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="11"/>
+        <v>0.85849056603773588</v>
+      </c>
+      <c r="T15" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>Y</v>
+      </c>
+      <c r="W15" s="16">
+        <f t="shared" si="13"/>
+        <v>0.2180293501048218</v>
+      </c>
+      <c r="X15" s="16">
+        <f t="shared" si="14"/>
+        <v>0.79944095038434659</v>
+      </c>
+      <c r="Y15" s="16">
+        <f t="shared" si="15"/>
+        <v>1.0538085255066387</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" si="16"/>
+        <v>0.1090146750524109</v>
+      </c>
+      <c r="AA15" s="16">
+        <f t="shared" si="17"/>
+        <v>13.22711390635919</v>
+      </c>
+      <c r="AB15" s="17">
+        <f t="shared" si="23"/>
+        <v>15.407407407407408</v>
+      </c>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="16">
+        <f t="shared" si="3"/>
+        <v>25.857588185339992</v>
+      </c>
+      <c r="AE15" s="16">
+        <f t="shared" si="18"/>
+        <v>5.0850357113141289</v>
+      </c>
+      <c r="AF15" s="16">
+        <f t="shared" si="4"/>
+        <v>3.0814814814814815</v>
+      </c>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>y:15.4:0.22:0.80:1.05:0.11:13.23</v>
+      </c>
+      <c r="AJ15" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'y': [15.4 , 0.22 , 0.80 , 1.05 , 0.11 , 13.23],</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -725,12 +2237,115 @@
       <c r="C16" s="2">
         <v>377</v>
       </c>
-      <c r="D16" s="3">
-        <f>C16/$C$2</f>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
         <v>13.962962962962964</v>
       </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>H</v>
+      </c>
+      <c r="G16" s="5">
+        <v>69</v>
+      </c>
+      <c r="H16" s="5">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5">
+        <v>9</v>
+      </c>
+      <c r="J16" s="5">
+        <v>28</v>
+      </c>
+      <c r="K16" s="5">
+        <v>137</v>
+      </c>
+      <c r="L16" s="21">
+        <f t="shared" si="21"/>
+        <v>387</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>H</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="7"/>
+        <v>0.17829457364341086</v>
+      </c>
+      <c r="P16" s="20">
+        <f t="shared" si="8"/>
+        <v>0.37209302325581395</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="9"/>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="R16" s="20">
+        <f t="shared" si="10"/>
+        <v>7.2351421188630485E-2</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="11"/>
+        <v>0.35400516795865633</v>
+      </c>
+      <c r="T16" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>H</v>
+      </c>
+      <c r="W16" s="16">
+        <f t="shared" si="13"/>
+        <v>2.4895205282802184</v>
+      </c>
+      <c r="X16" s="16">
+        <f t="shared" si="14"/>
+        <v>5.1955211024978469</v>
+      </c>
+      <c r="Y16" s="16">
+        <f t="shared" si="15"/>
+        <v>0.32472006890611543</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" si="16"/>
+        <v>1.0102402143745812</v>
+      </c>
+      <c r="AA16" s="16">
+        <f t="shared" si="17"/>
+        <v>4.942961048904202</v>
+      </c>
+      <c r="AB16" s="17">
+        <f t="shared" si="23"/>
+        <v>13.962962962962964</v>
+      </c>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="16">
+        <f t="shared" si="3"/>
+        <v>3.9514354782176189</v>
+      </c>
+      <c r="AE16" s="16">
+        <f t="shared" si="18"/>
+        <v>1.9878217923691295</v>
+      </c>
+      <c r="AF16" s="16">
+        <f t="shared" si="4"/>
+        <v>2.7925925925925927</v>
+      </c>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>h:14.0:2.49:5.20:0.32:1.01:4.94</v>
+      </c>
+      <c r="AJ16" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'h': [14.0 , 2.49 , 5.20 , 0.32 , 1.01 , 4.94],</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -740,12 +2355,115 @@
       <c r="C17" s="2">
         <v>370</v>
       </c>
-      <c r="D17" s="3">
-        <f>C17/$C$2</f>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
         <v>13.703703703703704</v>
       </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>D</v>
+      </c>
+      <c r="G17" s="5">
+        <v>111</v>
+      </c>
+      <c r="H17" s="5">
+        <v>20</v>
+      </c>
+      <c r="I17" s="5">
+        <v>75</v>
+      </c>
+      <c r="J17" s="5">
+        <v>69</v>
+      </c>
+      <c r="K17" s="5">
+        <v>118</v>
+      </c>
+      <c r="L17" s="21">
+        <f t="shared" si="21"/>
+        <v>393</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>D</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="7"/>
+        <v>0.28244274809160308</v>
+      </c>
+      <c r="P17" s="20">
+        <f t="shared" si="8"/>
+        <v>5.0890585241730277E-2</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="9"/>
+        <v>0.19083969465648856</v>
+      </c>
+      <c r="R17" s="20">
+        <f t="shared" si="10"/>
+        <v>0.17557251908396945</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="11"/>
+        <v>0.30025445292620867</v>
+      </c>
+      <c r="T17" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V17" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>D</v>
+      </c>
+      <c r="W17" s="16">
+        <f t="shared" si="13"/>
+        <v>3.8705117331071532</v>
+      </c>
+      <c r="X17" s="16">
+        <f t="shared" si="14"/>
+        <v>0.6973895014607483</v>
+      </c>
+      <c r="Y17" s="16">
+        <f t="shared" si="15"/>
+        <v>2.6152106304778062</v>
+      </c>
+      <c r="Z17" s="16">
+        <f t="shared" si="16"/>
+        <v>2.4059937800395814</v>
+      </c>
+      <c r="AA17" s="16">
+        <f t="shared" si="17"/>
+        <v>4.114598058618415</v>
+      </c>
+      <c r="AB17" s="17">
+        <f t="shared" si="23"/>
+        <v>13.703703703703706</v>
+      </c>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="16">
+        <f t="shared" si="3"/>
+        <v>1.4933928096853959</v>
+      </c>
+      <c r="AE17" s="16">
+        <f t="shared" si="18"/>
+        <v>1.2220445203368804</v>
+      </c>
+      <c r="AF17" s="16">
+        <f t="shared" si="4"/>
+        <v>2.7407407407407414</v>
+      </c>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>d:13.7:3.87:0.70:2.62:2.41:4.11</v>
+      </c>
+      <c r="AJ17" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'d': [13.7 , 3.87 , 0.70 , 2.62 , 2.41 , 4.11],</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -755,12 +2473,115 @@
       <c r="C18" s="2">
         <v>345</v>
       </c>
-      <c r="D18" s="3">
-        <f>C18/$C$2</f>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
         <v>12.777777777777779</v>
       </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>P</v>
+      </c>
+      <c r="G18" s="5">
+        <v>141</v>
+      </c>
+      <c r="H18" s="5">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5">
+        <v>57</v>
+      </c>
+      <c r="J18" s="5">
+        <v>50</v>
+      </c>
+      <c r="K18" s="5">
+        <v>56</v>
+      </c>
+      <c r="L18" s="21">
+        <f t="shared" si="21"/>
+        <v>365</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>P</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="7"/>
+        <v>0.38630136986301372</v>
+      </c>
+      <c r="P18" s="20">
+        <f t="shared" si="8"/>
+        <v>0.16712328767123288</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="9"/>
+        <v>0.15616438356164383</v>
+      </c>
+      <c r="R18" s="20">
+        <f t="shared" si="10"/>
+        <v>0.13698630136986301</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="11"/>
+        <v>0.15342465753424658</v>
+      </c>
+      <c r="T18" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V18" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>P</v>
+      </c>
+      <c r="W18" s="16">
+        <f t="shared" si="13"/>
+        <v>4.9360730593607309</v>
+      </c>
+      <c r="X18" s="16">
+        <f t="shared" si="14"/>
+        <v>2.1354642313546424</v>
+      </c>
+      <c r="Y18" s="16">
+        <f t="shared" si="15"/>
+        <v>1.995433789954338</v>
+      </c>
+      <c r="Z18" s="16">
+        <f t="shared" si="16"/>
+        <v>1.7503805175038052</v>
+      </c>
+      <c r="AA18" s="16">
+        <f t="shared" si="17"/>
+        <v>1.9604261796042621</v>
+      </c>
+      <c r="AB18" s="17">
+        <f t="shared" si="23"/>
+        <v>12.777777777777779</v>
+      </c>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="16">
+        <f t="shared" si="3"/>
+        <v>1.4319125029827466</v>
+      </c>
+      <c r="AE18" s="16">
+        <f t="shared" si="18"/>
+        <v>1.1966254647895249</v>
+      </c>
+      <c r="AF18" s="16">
+        <f t="shared" si="4"/>
+        <v>2.5555555555555558</v>
+      </c>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>p:12.8:4.94:2.14:2.00:1.75:1.96</v>
+      </c>
+      <c r="AJ18" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'p': [12.8 , 4.94 , 2.14 , 2.00 , 1.75 , 1.96],</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>16</v>
       </c>
@@ -770,12 +2591,115 @@
       <c r="C19" s="2">
         <v>299</v>
       </c>
-      <c r="D19" s="3">
-        <f>C19/$C$2</f>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
         <v>11.074074074074074</v>
       </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>G</v>
+      </c>
+      <c r="G19" s="5">
+        <v>115</v>
+      </c>
+      <c r="H19" s="5">
+        <v>11</v>
+      </c>
+      <c r="I19" s="5">
+        <v>67</v>
+      </c>
+      <c r="J19" s="5">
+        <v>76</v>
+      </c>
+      <c r="K19" s="5">
+        <v>41</v>
+      </c>
+      <c r="L19" s="21">
+        <f t="shared" si="21"/>
+        <v>310</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>G</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="7"/>
+        <v>0.37096774193548387</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" si="8"/>
+        <v>3.5483870967741936E-2</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="9"/>
+        <v>0.21612903225806451</v>
+      </c>
+      <c r="R19" s="20">
+        <f t="shared" si="10"/>
+        <v>0.24516129032258063</v>
+      </c>
+      <c r="S19" s="20">
+        <f t="shared" si="11"/>
+        <v>0.13225806451612904</v>
+      </c>
+      <c r="T19" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V19" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>G</v>
+      </c>
+      <c r="W19" s="16">
+        <f t="shared" si="13"/>
+        <v>4.1081242532855438</v>
+      </c>
+      <c r="X19" s="16">
+        <f t="shared" si="14"/>
+        <v>0.39295101553166073</v>
+      </c>
+      <c r="Y19" s="16">
+        <f t="shared" si="15"/>
+        <v>2.3934289127837514</v>
+      </c>
+      <c r="Z19" s="16">
+        <f t="shared" si="16"/>
+        <v>2.7149342891278376</v>
+      </c>
+      <c r="AA19" s="16">
+        <f t="shared" si="17"/>
+        <v>1.4646356033452808</v>
+      </c>
+      <c r="AB19" s="17">
+        <f t="shared" si="23"/>
+        <v>11.074074074074074</v>
+      </c>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="16">
+        <f t="shared" si="3"/>
+        <v>1.5497199333684484</v>
+      </c>
+      <c r="AE19" s="16">
+        <f t="shared" si="18"/>
+        <v>1.2448774772516564</v>
+      </c>
+      <c r="AF19" s="16">
+        <f t="shared" si="4"/>
+        <v>2.2148148148148148</v>
+      </c>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>g:11.1:4.11:0.39:2.39:2.71:1.46</v>
+      </c>
+      <c r="AJ19" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'g': [11.1 , 4.11 , 0.39 , 2.39 , 2.71 , 1.46],</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>14</v>
       </c>
@@ -785,12 +2709,115 @@
       <c r="C20" s="2">
         <v>298</v>
       </c>
-      <c r="D20" s="3">
-        <f>C20/$C$2</f>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
         <v>11.037037037037036</v>
       </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>M</v>
+      </c>
+      <c r="G20" s="5">
+        <v>107</v>
+      </c>
+      <c r="H20" s="5">
+        <v>38</v>
+      </c>
+      <c r="I20" s="5">
+        <v>61</v>
+      </c>
+      <c r="J20" s="5">
+        <v>68</v>
+      </c>
+      <c r="K20" s="5">
+        <v>42</v>
+      </c>
+      <c r="L20" s="21">
+        <f t="shared" si="21"/>
+        <v>316</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>M</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="7"/>
+        <v>0.33860759493670883</v>
+      </c>
+      <c r="P20" s="20">
+        <f t="shared" si="8"/>
+        <v>0.12025316455696203</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="9"/>
+        <v>0.19303797468354431</v>
+      </c>
+      <c r="R20" s="20">
+        <f t="shared" si="10"/>
+        <v>0.21518987341772153</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" si="11"/>
+        <v>0.13291139240506328</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V20" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>M</v>
+      </c>
+      <c r="W20" s="16">
+        <f t="shared" si="13"/>
+        <v>3.7372245663384898</v>
+      </c>
+      <c r="X20" s="16">
+        <f t="shared" si="14"/>
+        <v>1.3272386310360993</v>
+      </c>
+      <c r="Y20" s="16">
+        <f t="shared" si="15"/>
+        <v>2.1305672761368961</v>
+      </c>
+      <c r="Z20" s="16">
+        <f t="shared" si="16"/>
+        <v>2.3750586029067042</v>
+      </c>
+      <c r="AA20" s="16">
+        <f t="shared" si="17"/>
+        <v>1.4669479606188465</v>
+      </c>
+      <c r="AB20" s="17">
+        <f t="shared" si="23"/>
+        <v>11.037037037037035</v>
+      </c>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.73946582722467502</v>
+      </c>
+      <c r="AE20" s="16">
+        <f t="shared" si="18"/>
+        <v>0.85992198903428152</v>
+      </c>
+      <c r="AF20" s="16">
+        <f t="shared" si="4"/>
+        <v>2.2074074074074068</v>
+      </c>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>m:11.0:3.74:1.33:2.13:2.38:1.47</v>
+      </c>
+      <c r="AJ20" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'m': [11.0 , 3.74 , 1.33 , 2.13 , 2.38 , 1.47],</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -800,12 +2827,115 @@
       <c r="C21" s="2">
         <v>266</v>
       </c>
-      <c r="D21" s="3">
-        <f>C21/$C$2</f>
+      <c r="D21" s="12">
+        <f t="shared" si="0"/>
         <v>9.8518518518518512</v>
       </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>B</v>
+      </c>
+      <c r="G21" s="5">
+        <v>173</v>
+      </c>
+      <c r="H21" s="5">
+        <v>16</v>
+      </c>
+      <c r="I21" s="5">
+        <v>54</v>
+      </c>
+      <c r="J21" s="5">
+        <v>24</v>
+      </c>
+      <c r="K21" s="5">
+        <v>11</v>
+      </c>
+      <c r="L21" s="21">
+        <f t="shared" si="21"/>
+        <v>278</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>B</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="7"/>
+        <v>0.62230215827338131</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" si="8"/>
+        <v>5.7553956834532377E-2</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="9"/>
+        <v>0.19424460431654678</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="10"/>
+        <v>8.6330935251798566E-2</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="11"/>
+        <v>3.9568345323741004E-2</v>
+      </c>
+      <c r="T21" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V21" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>B</v>
+      </c>
+      <c r="W21" s="16">
+        <f t="shared" si="13"/>
+        <v>6.1308286703970154</v>
+      </c>
+      <c r="X21" s="16">
+        <f t="shared" si="14"/>
+        <v>0.56701305622168929</v>
+      </c>
+      <c r="Y21" s="16">
+        <f t="shared" si="15"/>
+        <v>1.9136690647482015</v>
+      </c>
+      <c r="Z21" s="16">
+        <f t="shared" si="16"/>
+        <v>0.85051958433253394</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" si="17"/>
+        <v>0.38982147615241136</v>
+      </c>
+      <c r="AB21" s="17">
+        <f t="shared" si="23"/>
+        <v>9.851851851851853</v>
+      </c>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="16">
+        <f t="shared" si="3"/>
+        <v>4.6068481290995233</v>
+      </c>
+      <c r="AE21" s="16">
+        <f t="shared" si="18"/>
+        <v>2.1463569435439958</v>
+      </c>
+      <c r="AF21" s="16">
+        <f t="shared" si="4"/>
+        <v>1.9703703703703705</v>
+      </c>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>b:9.9:6.13:0.57:1.91:0.85:0.39</v>
+      </c>
+      <c r="AJ21" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'b': [9.9 , 6.13 , 0.57 , 1.91 , 0.85 , 0.39],</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -815,12 +2945,115 @@
       <c r="C22" s="2">
         <v>206</v>
       </c>
-      <c r="D22" s="3">
-        <f>C22/$C$2</f>
+      <c r="D22" s="12">
+        <f t="shared" si="0"/>
         <v>7.6296296296296298</v>
       </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>F</v>
+      </c>
+      <c r="G22" s="5">
+        <v>135</v>
+      </c>
+      <c r="H22" s="5">
+        <v>8</v>
+      </c>
+      <c r="I22" s="5">
+        <v>25</v>
+      </c>
+      <c r="J22" s="5">
+        <v>35</v>
+      </c>
+      <c r="K22" s="5">
+        <v>26</v>
+      </c>
+      <c r="L22" s="21">
+        <f t="shared" si="21"/>
+        <v>229</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>F</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="7"/>
+        <v>0.58951965065502188</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="8"/>
+        <v>3.4934497816593885E-2</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="9"/>
+        <v>0.1091703056768559</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="10"/>
+        <v>0.15283842794759825</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="11"/>
+        <v>0.11353711790393013</v>
+      </c>
+      <c r="T22" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V22" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>F</v>
+      </c>
+      <c r="W22" s="16">
+        <f t="shared" si="13"/>
+        <v>4.4978165938864629</v>
+      </c>
+      <c r="X22" s="16">
+        <f t="shared" si="14"/>
+        <v>0.26653727963771628</v>
+      </c>
+      <c r="Y22" s="16">
+        <f t="shared" si="15"/>
+        <v>0.83292899886786353</v>
+      </c>
+      <c r="Z22" s="16">
+        <f t="shared" si="16"/>
+        <v>1.1661005984150088</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" si="17"/>
+        <v>0.86624615882257805</v>
+      </c>
+      <c r="AB22" s="17">
+        <f t="shared" si="23"/>
+        <v>7.6296296296296298</v>
+      </c>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="16">
+        <f t="shared" si="3"/>
+        <v>2.2926180614132718</v>
+      </c>
+      <c r="AE22" s="16">
+        <f t="shared" si="18"/>
+        <v>1.5141393797841967</v>
+      </c>
+      <c r="AF22" s="16">
+        <f t="shared" si="4"/>
+        <v>1.5259259259259259</v>
+      </c>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>f:7.6:4.50:0.27:0.83:1.17:0.87</v>
+      </c>
+      <c r="AJ22" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'f': [7.6 , 4.50 , 0.27 , 0.83 , 1.17 , 0.87],</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -830,12 +3063,115 @@
       <c r="C23" s="2">
         <v>202</v>
       </c>
-      <c r="D23" s="3">
-        <f>C23/$C$2</f>
+      <c r="D23" s="12">
+        <f t="shared" si="0"/>
         <v>7.4814814814814818</v>
       </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>K</v>
+      </c>
+      <c r="G23" s="5">
+        <v>20</v>
+      </c>
+      <c r="H23" s="5">
+        <v>10</v>
+      </c>
+      <c r="I23" s="5">
+        <v>12</v>
+      </c>
+      <c r="J23" s="5">
+        <v>55</v>
+      </c>
+      <c r="K23" s="5">
+        <v>113</v>
+      </c>
+      <c r="L23" s="21">
+        <f t="shared" si="21"/>
+        <v>210</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>K</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="7"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" si="8"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="9"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="10"/>
+        <v>0.26190476190476192</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="11"/>
+        <v>0.53809523809523807</v>
+      </c>
+      <c r="T23" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V23" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>K</v>
+      </c>
+      <c r="W23" s="16">
+        <f t="shared" si="13"/>
+        <v>0.71252204585537915</v>
+      </c>
+      <c r="X23" s="16">
+        <f t="shared" si="14"/>
+        <v>0.35626102292768957</v>
+      </c>
+      <c r="Y23" s="16">
+        <f t="shared" si="15"/>
+        <v>0.42751322751322751</v>
+      </c>
+      <c r="Z23" s="16">
+        <f t="shared" si="16"/>
+        <v>1.9594356261022929</v>
+      </c>
+      <c r="AA23" s="16">
+        <f t="shared" si="17"/>
+        <v>4.0257495590828922</v>
+      </c>
+      <c r="AB23" s="17">
+        <f t="shared" si="23"/>
+        <v>7.4814814814814818</v>
+      </c>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9337823191462227</v>
+      </c>
+      <c r="AE23" s="16">
+        <f t="shared" si="18"/>
+        <v>1.3906050191000401</v>
+      </c>
+      <c r="AF23" s="16">
+        <f t="shared" si="4"/>
+        <v>1.4962962962962965</v>
+      </c>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>k:7.5:0.71:0.36:0.43:1.96:4.03</v>
+      </c>
+      <c r="AJ23" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'k': [7.5 , 0.71 , 0.36 , 0.43 , 1.96 , 4.03],</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>20</v>
       </c>
@@ -845,12 +3181,115 @@
       <c r="C24" s="2">
         <v>193</v>
       </c>
-      <c r="D24" s="3">
-        <f>C24/$C$2</f>
+      <c r="D24" s="12">
+        <f t="shared" si="0"/>
         <v>7.1481481481481479</v>
       </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>W</v>
+      </c>
+      <c r="G24" s="5">
+        <v>82</v>
+      </c>
+      <c r="H24" s="5">
+        <v>44</v>
+      </c>
+      <c r="I24" s="5">
+        <v>26</v>
+      </c>
+      <c r="J24" s="5">
+        <v>25</v>
+      </c>
+      <c r="K24" s="5">
+        <v>17</v>
+      </c>
+      <c r="L24" s="21">
+        <f t="shared" si="21"/>
+        <v>194</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>W</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="7"/>
+        <v>0.42268041237113402</v>
+      </c>
+      <c r="P24" s="20">
+        <f t="shared" si="8"/>
+        <v>0.22680412371134021</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="9"/>
+        <v>0.13402061855670103</v>
+      </c>
+      <c r="R24" s="20">
+        <f t="shared" si="10"/>
+        <v>0.12886597938144329</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="11"/>
+        <v>8.7628865979381437E-2</v>
+      </c>
+      <c r="T24" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V24" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>W</v>
+      </c>
+      <c r="W24" s="16">
+        <f t="shared" si="13"/>
+        <v>3.0213822069492173</v>
+      </c>
+      <c r="X24" s="16">
+        <f t="shared" si="14"/>
+        <v>1.6212294768995799</v>
+      </c>
+      <c r="Y24" s="16">
+        <f t="shared" si="15"/>
+        <v>0.9579992363497517</v>
+      </c>
+      <c r="Z24" s="16">
+        <f t="shared" si="16"/>
+        <v>0.92115311187476123</v>
+      </c>
+      <c r="AA24" s="16">
+        <f t="shared" si="17"/>
+        <v>0.62638411607483768</v>
+      </c>
+      <c r="AB24" s="17">
+        <f t="shared" si="23"/>
+        <v>7.148148148148147</v>
+      </c>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="16">
+        <f t="shared" si="3"/>
+        <v>0.7393147441793545</v>
+      </c>
+      <c r="AE24" s="16">
+        <f t="shared" si="18"/>
+        <v>0.85983413759826643</v>
+      </c>
+      <c r="AF24" s="16">
+        <f t="shared" si="4"/>
+        <v>1.4296296296296294</v>
+      </c>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>w:7.1:3.02:1.62:0.96:0.92:0.63</v>
+      </c>
+      <c r="AJ24" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'w': [7.1 , 3.02 , 1.62 , 0.96 , 0.92 , 0.63],</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>22</v>
       </c>
@@ -860,12 +3299,115 @@
       <c r="C25" s="2">
         <v>148</v>
       </c>
-      <c r="D25" s="3">
-        <f>C25/$C$2</f>
+      <c r="D25" s="12">
+        <f t="shared" si="0"/>
         <v>5.4814814814814818</v>
       </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>V</v>
+      </c>
+      <c r="G25" s="5">
+        <v>43</v>
+      </c>
+      <c r="H25" s="5">
+        <v>15</v>
+      </c>
+      <c r="I25" s="5">
+        <v>49</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <f t="shared" si="21"/>
+        <v>152</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>V</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="7"/>
+        <v>0.28289473684210525</v>
+      </c>
+      <c r="P25" s="20">
+        <f t="shared" si="8"/>
+        <v>9.8684210526315791E-2</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="9"/>
+        <v>0.32236842105263158</v>
+      </c>
+      <c r="R25" s="20">
+        <f t="shared" si="10"/>
+        <v>0.29605263157894735</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V25" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>V</v>
+      </c>
+      <c r="W25" s="16">
+        <f t="shared" si="13"/>
+        <v>1.5506822612085771</v>
+      </c>
+      <c r="X25" s="16">
+        <f t="shared" si="14"/>
+        <v>0.54093567251461994</v>
+      </c>
+      <c r="Y25" s="16">
+        <f t="shared" si="15"/>
+        <v>1.767056530214425</v>
+      </c>
+      <c r="Z25" s="16">
+        <f t="shared" si="16"/>
+        <v>1.6228070175438596</v>
+      </c>
+      <c r="AA25" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="17">
+        <f t="shared" si="23"/>
+        <v>5.481481481481481</v>
+      </c>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="16">
+        <f t="shared" si="3"/>
+        <v>0.48877808556478941</v>
+      </c>
+      <c r="AE25" s="16">
+        <f t="shared" si="18"/>
+        <v>0.69912665917184802</v>
+      </c>
+      <c r="AF25" s="16">
+        <f t="shared" si="4"/>
+        <v>1.0962962962962961</v>
+      </c>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>v:5.5:1.55:0.54:1.77:1.62:0.00</v>
+      </c>
+      <c r="AJ25" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'v': [5.5 , 1.55 , 0.54 , 1.77 , 1.62 , 0.00],</v>
+      </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>23</v>
       </c>
@@ -875,12 +3417,115 @@
       <c r="C26" s="2">
         <v>37</v>
       </c>
-      <c r="D26" s="3">
-        <f>C26/$C$2</f>
+      <c r="D26" s="12">
+        <f t="shared" si="0"/>
         <v>1.3703703703703705</v>
       </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>X</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>14</v>
+      </c>
+      <c r="I26" s="5">
+        <v>12</v>
+      </c>
+      <c r="J26" s="5">
+        <v>3</v>
+      </c>
+      <c r="K26" s="5">
+        <v>8</v>
+      </c>
+      <c r="L26" s="21">
+        <f t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>X</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="20">
+        <f t="shared" si="8"/>
+        <v>0.3783783783783784</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="9"/>
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="10"/>
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="11"/>
+        <v>0.21621621621621623</v>
+      </c>
+      <c r="T26" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V26" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>X</v>
+      </c>
+      <c r="W26" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="16">
+        <f t="shared" si="14"/>
+        <v>0.5185185185185186</v>
+      </c>
+      <c r="Y26" s="16">
+        <f t="shared" si="15"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="Z26" s="16">
+        <f t="shared" si="16"/>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="AA26" s="16">
+        <f t="shared" si="17"/>
+        <v>0.29629629629629634</v>
+      </c>
+      <c r="AB26" s="17">
+        <f t="shared" si="23"/>
+        <v>1.3703703703703705</v>
+      </c>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="16">
+        <f t="shared" si="3"/>
+        <v>3.8189300411522659E-2</v>
+      </c>
+      <c r="AE26" s="16">
+        <f t="shared" si="18"/>
+        <v>0.19542082901145072</v>
+      </c>
+      <c r="AF26" s="16">
+        <f t="shared" si="4"/>
+        <v>0.27407407407407408</v>
+      </c>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>x:1.4:0.00:0.52:0.44:0.11:0.30</v>
+      </c>
+      <c r="AJ26" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'x': [1.4 , 0.00 , 0.52 , 0.44 , 0.11 , 0.30],</v>
+      </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>24</v>
       </c>
@@ -890,12 +3535,115 @@
       <c r="C27" s="2">
         <v>35</v>
       </c>
-      <c r="D27" s="3">
-        <f>C27/$C$2</f>
+      <c r="D27" s="12">
+        <f t="shared" si="0"/>
         <v>1.2962962962962963</v>
       </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>Z</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2</v>
+      </c>
+      <c r="I27" s="5">
+        <v>11</v>
+      </c>
+      <c r="J27" s="5">
+        <v>20</v>
+      </c>
+      <c r="K27" s="5">
+        <v>4</v>
+      </c>
+      <c r="L27" s="21">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>Z</v>
+      </c>
+      <c r="O27" s="20">
+        <f t="shared" si="7"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P27" s="20">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" si="9"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R27" s="20">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="S27" s="20">
+        <f t="shared" si="11"/>
+        <v>0.1</v>
+      </c>
+      <c r="T27" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V27" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>Z</v>
+      </c>
+      <c r="W27" s="16">
+        <f t="shared" si="13"/>
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="X27" s="16">
+        <f t="shared" si="14"/>
+        <v>6.4814814814814811E-2</v>
+      </c>
+      <c r="Y27" s="16">
+        <f t="shared" si="15"/>
+        <v>0.35648148148148151</v>
+      </c>
+      <c r="Z27" s="16">
+        <f t="shared" si="16"/>
+        <v>0.64814814814814814</v>
+      </c>
+      <c r="AA27" s="16">
+        <f t="shared" si="17"/>
+        <v>0.12962962962962962</v>
+      </c>
+      <c r="AB27" s="17">
+        <f t="shared" si="23"/>
+        <v>1.2962962962962963</v>
+      </c>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="16">
+        <f t="shared" si="3"/>
+        <v>4.8311042524005483E-2</v>
+      </c>
+      <c r="AE27" s="16">
+        <f t="shared" si="18"/>
+        <v>0.21979773093461516</v>
+      </c>
+      <c r="AF27" s="16">
+        <f t="shared" si="4"/>
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>z:1.3:0.10:0.06:0.36:0.65:0.13</v>
+      </c>
+      <c r="AJ27" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'z': [1.3 , 0.10 , 0.06 , 0.36 , 0.65 , 0.13],</v>
+      </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -905,12 +3653,115 @@
       <c r="C28" s="2">
         <v>29</v>
       </c>
-      <c r="D28" s="3">
-        <f>C28/$C$2</f>
+      <c r="D28" s="12">
+        <f t="shared" si="0"/>
         <v>1.0740740740740742</v>
       </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>Q</v>
+      </c>
+      <c r="G28" s="5">
+        <v>23</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5</v>
+      </c>
+      <c r="I28" s="5">
+        <v>1</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="21"/>
+        <v>29</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>Q</v>
+      </c>
+      <c r="O28" s="20">
+        <f t="shared" si="7"/>
+        <v>0.7931034482758621</v>
+      </c>
+      <c r="P28" s="20">
+        <f t="shared" si="8"/>
+        <v>0.17241379310344829</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="9"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="R28" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="21">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="V28" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>Q</v>
+      </c>
+      <c r="W28" s="16">
+        <f t="shared" si="13"/>
+        <v>0.85185185185185197</v>
+      </c>
+      <c r="X28" s="16">
+        <f t="shared" si="14"/>
+        <v>0.1851851851851852</v>
+      </c>
+      <c r="Y28" s="16">
+        <f t="shared" si="15"/>
+        <v>3.7037037037037042E-2</v>
+      </c>
+      <c r="Z28" s="16">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="17">
+        <f t="shared" si="23"/>
+        <v>1.0740740740740742</v>
+      </c>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="16">
+        <f t="shared" si="3"/>
+        <v>0.10611796982167356</v>
+      </c>
+      <c r="AE28" s="16">
+        <f t="shared" si="18"/>
+        <v>0.32575753225623738</v>
+      </c>
+      <c r="AF28" s="16">
+        <f t="shared" si="4"/>
+        <v>0.21481481481481485</v>
+      </c>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>q:1.1:0.85:0.19:0.04:0.00:0.00</v>
+      </c>
+      <c r="AJ28" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'q': [1.1 , 0.85 , 0.19 , 0.04 , 0.00 , 0.00],</v>
+      </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>25</v>
       </c>
@@ -920,9 +3771,117 @@
       <c r="C29" s="2">
         <v>27</v>
       </c>
-      <c r="D29" s="3">
-        <f>C29/$C$2</f>
+      <c r="D29" s="12">
+        <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="15" t="str">
+        <f t="shared" si="5"/>
+        <v>J</v>
+      </c>
+      <c r="G29" s="5">
+        <v>20</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2</v>
+      </c>
+      <c r="I29" s="5">
+        <v>3</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="21">
+        <f t="shared" si="21"/>
+        <v>27</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>J</v>
+      </c>
+      <c r="O29" s="20">
+        <f t="shared" si="7"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="P29" s="20">
+        <f t="shared" si="8"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="Q29" s="20">
+        <f t="shared" si="9"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R29" s="20">
+        <f t="shared" si="10"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="S29" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="21">
+        <f t="shared" si="22"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="V29" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>J</v>
+      </c>
+      <c r="W29" s="16">
+        <f t="shared" si="13"/>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="X29" s="16">
+        <f t="shared" si="14"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="Y29" s="16">
+        <f t="shared" si="15"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Z29" s="16">
+        <f t="shared" si="16"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="AA29" s="16">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="17">
+        <f t="shared" si="23"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="16">
+        <f t="shared" si="3"/>
+        <v>7.440329218106996E-2</v>
+      </c>
+      <c r="AE29" s="16">
+        <f t="shared" si="18"/>
+        <v>0.27276966873365882</v>
+      </c>
+      <c r="AF29" s="16">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="18" t="str">
+        <f t="shared" si="19"/>
+        <v>j:1.0:0.74:0.07:0.11:0.07:0.00</v>
+      </c>
+      <c r="AJ29" s="18" t="str">
+        <f t="shared" si="20"/>
+        <v>'j': [1.0 , 0.74 , 0.07 , 0.11 , 0.07 , 0.00],</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="AJ30" s="19" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -930,5 +3889,6 @@
     <sortCondition descending="1" ref="D4:D29"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>